--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="数据分析" sheetId="2" r:id="rId2"/>
     <sheet name="模型运用" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>数据经过主成份降维后，相当于去除了噪声，降维后数据变化应较为稳定与简单，可预测准确度应较高，可用降维后数据先对模型进行训练，后再用实际数据进行迁移学习，后观察结果。占据不同百分比的维度成分，代表了不同内在稳定的因素。另一个运用的方法是对降维后的数据进行重构，用原始数据减去重构数据得到的“噪声”数据可以进行模式识别研究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对时间序列进行小波分解，后作为特征给神经网络进行学习，加上PCA后的指标降维数据一起作为另外的特征输入。按照原理，不需要取太长的时间序列，如果时间序列很长，前后两条数据的差别就是很小的，神经网络其实是区别不出来的，也不要录入长短不一的时间序列，因为长序列已包含了短序列的信息，不需要重复分解。时间序列长度取20，是介于长期与短期的一个数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -733,176 +737,182 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="94.5">
-      <c r="B11" s="2">
+    <row r="11" spans="1:4" ht="71.25" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="94.5">
+      <c r="B12" s="2">
         <v>2.4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="67.5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="4" t="s">
+    <row r="13" spans="1:4" ht="67.5">
+      <c r="B13" s="2"/>
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="B13" s="2">
+    <row r="14" spans="1:4" ht="27">
+      <c r="B14" s="2">
         <v>2.5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="1:4" ht="40.5">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2">
+    <row r="16" spans="1:4">
+      <c r="B16" s="2">
         <v>2.6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="54">
-      <c r="B16" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="54">
       <c r="B17" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54">
+      <c r="B18" s="2">
         <v>2.8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="2">
+    <row r="19" spans="1:4">
+      <c r="B19" s="2">
         <v>2.9</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -271,7 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对时间序列进行小波分解，后作为特征给神经网络进行学习，加上PCA后的指标降维数据一起作为另外的特征输入。按照原理，不需要取太长的时间序列，如果时间序列很长，前后两条数据的差别就是很小的，神经网络其实是区别不出来的，也不要录入长短不一的时间序列，因为长序列已包含了短序列的信息，不需要重复分解。时间序列长度取20，是介于长期与短期的一个数。</t>
+    <t>对时间序列进行小波分解，后作为特征给神经网络进行学习，加上PCA后的指标降维数据一起作为另外的特征输入。按照原理，不需要取太长的时间序列，如果时间序列很长，前后两条数据的差别就是很小的，神经网络其实是区别不出来的，也不要录入长短不一的时间序列，因为长序列已包含了短序列的信息，不需要重复分解。时间序列长度取20，是介于长期与短期的一个数。也可以用短期时间5试一下效果，因为相邻两个序列只前移了一天。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="数据分析" sheetId="2" r:id="rId2"/>
     <sheet name="模型运用" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>对时间序列进行小波分解，后作为特征给神经网络进行学习，加上PCA后的指标降维数据一起作为另外的特征输入。按照原理，不需要取太长的时间序列，如果时间序列很长，前后两条数据的差别就是很小的，神经网络其实是区别不出来的，也不要录入长短不一的时间序列，因为长序列已包含了短序列的信息，不需要重复分解。时间序列长度取20，是介于长期与短期的一个数。也可以用短期时间5试一下效果，因为相邻两个序列只前移了一天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过PCA与Wavelet处理的数据进行输入，训练的结果泛化精度并不能比原来有效提高，原来的训练数据并不需要归一化，当增加了指标特征作为输入后泛化精度有所提高（提高0.02，看来是输入特征越多越有效），现考虑在原有数据基础上加入PCA与Wavelet处理数据再进行训练观察结果，先把原来数据再进行一次训练记录好结果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -890,6 +894,9 @@
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="数据分析" sheetId="2" r:id="rId2"/>
     <sheet name="模型运用" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,10 @@
   </si>
   <si>
     <t>经过PCA与Wavelet处理的数据进行输入，训练的结果泛化精度并不能比原来有效提高，原来的训练数据并不需要归一化，当增加了指标特征作为输入后泛化精度有所提高（提高0.02，看来是输入特征越多越有效），现考虑在原有数据基础上加入PCA与Wavelet处理数据再进行训练观察结果，先把原来数据再进行一次训练记录好结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑新旧数据的区别，旧数据去掉了50个初始的不规则数据（很多单元是空的），可能是提高泛化精度的原因。原来的网络结构没有批量归一化，而加入dropout也能提高泛化精度，同时多加指标特征也提高了泛化精度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,12 +853,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="40.5">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -279,7 +279,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考虑新旧数据的区别，旧数据去掉了50个初始的不规则数据（很多单元是空的），可能是提高泛化精度的原因。原来的网络结构没有批量归一化，而加入dropout也能提高泛化精度，同时多加指标特征也提高了泛化精度。</t>
+    <t>考虑新旧数据的区别，旧数据去掉了50个初始的不规则数据（很多单元是空的），可能是提高泛化精度的原因。原来的网络结构没有批量归一化，而加入dropout也能提高泛化精度，同时多加指标特征也提高了泛化精度。原来的数据还是最低价标签。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>考虑新旧数据的区别，旧数据去掉了50个初始的不规则数据（很多单元是空的），可能是提高泛化精度的原因。原来的网络结构没有批量归一化，而加入dropout也能提高泛化精度，同时多加指标特征也提高了泛化精度。原来的数据还是最低价标签。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据目前训练结果看，指标选择有较大影响，去掉前部分不规则数据没有什么影响。选的指标不对，增加指标训练精度反而下降了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +652,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -914,15 +918,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4" ht="27">
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="D33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>14</v>
       </c>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>根据目前训练结果看，指标选择有较大影响，去掉前部分不规则数据没有什么影响。选的指标不对，增加指标训练精度反而下降了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终确定90个特征，check,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -803,7 +807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54">
+    <row r="17" spans="2:4" ht="54">
       <c r="B17" s="2">
         <v>2.7</v>
       </c>
@@ -814,7 +818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="54">
+    <row r="18" spans="2:4" ht="54">
       <c r="B18" s="2">
         <v>2.8</v>
       </c>
@@ -825,7 +829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="2:4">
       <c r="B19" s="2">
         <v>2.9</v>
       </c>
@@ -833,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -841,7 +845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -849,7 +853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -857,7 +861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="40.5">
+    <row r="23" spans="2:4" ht="40.5">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -868,72 +872,81 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:4" ht="54">
+      <c r="B24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="27">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="54">
+      <c r="B26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="27">
-      <c r="B33" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -287,7 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终确定90个特征，check,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看。</t>
+    <t>最终确定89个特征，check1,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看。还需要测试使用少量指标的泛化效果，因为每天操作要收集那么多指标也麻烦。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -287,7 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终确定89个特征，check1,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看。还需要测试使用少量指标的泛化效果，因为每天操作要收集那么多指标也麻烦。</t>
+    <t>最终确定89个特征，check1,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看（不能去掉收盘价，因为后面很多指标都是用到收盘价计算的）。还需要测试使用少量指标的泛化效果，因为每天操作要收集那么多指标也麻烦。不需要归一化的情况也测试一下。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="54">
+    <row r="26" spans="2:4" ht="67.5">
       <c r="B26" s="2"/>
       <c r="D26" s="4" t="s">
         <v>69</v>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AuT+1模型设计与训练" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,38 @@
   </si>
   <si>
     <t>最终确定89个特征，check1,symmetry数据映射到1-1区间，考虑用两种网络结构，一种用BN，一种不用，用BN的网络收敛快，概率也高，不用BN很难收敛，或许泛化精度高一点（不一定有意义），概率也较低。不用BN考虑再改一下激活函数为tanh看看，还有去掉收盘价看看（不能去掉收盘价，因为后面很多指标都是用到收盘价计算的）。还需要测试使用少量指标的泛化效果，因为每天操作要收集那么多指标也麻烦。不需要归一化的情况也测试一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练获得的网络，最终是为了运用盈利；因此，针对每一个网络，怎样评价测量她的有效性，怎样运用发挥最大的效用，是需要研究的课题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络欠拟合和过拟合会怎样，网络对训练集和测试集会得出怎样不同的结果，输入特征多少的意义，输出标签多少的意义，输出概率的可信意义。针对不同网络，采用怎样的策略应用到实际操作才能获得最好的结果，我能确定我的策略有用吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否根据数据、网络特点和操作需要重新训练更有效的网络？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高低价标签数据90%以上集中在中点附近，偏离中点波动较大的数据相对来说其实极少，因此他们对训练网络的影响是很少的，能否把少部分的数据重复复制到训练集中用于网络训练，是否能提高网络的效果？网络对于波动大的数据始终是预测不到的（有效市场理论），能否干脆简化掉波动大的标签，只留中点附近的标签，训练的网络是否更有效？根据具体操作时的需要和情况（网络预测的结果往往偏向于向中间收缩），标签由最高的改为roundup,最低的改为rounddown标签（使得网络训练时尽量向外偏），训练的网络是否提高实际操作的效果？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练的概率与预测的概率都存在偏差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当网络没有欠拟合、也没有过拟合时，训练集得到的90%以上的概率并不可靠，特别是概率特别高，预测的波动值又是特别大的，都不对，还不清楚为什么有这样的错误。偏向中间的概率30%~80%的基本可以对得上。而测试集得出的概率比训练集可信度进一步降低，可信的概率值更进一步偏向中间，30%~60%的概率值是对得上的。预想，如果网络对训练集拟合很好的，这时候显然是过拟合，达到训练集80%或90%的准确率，这时的测试集可能的得到的概率都不会太高，但是概率的可信度提高了。因为，过拟合的网络，可以认为是模式识别的网络，通过该网络保留的概率就是普通不变的规律，如果得到高概率，说明碰到了符合该网络识别的特征数据，也是可信的。但实际上一般来说是碰不上的，只有经过很长时间的观察，才有可能碰上，这也符合了时空转换的原理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实中，如果确定知道是波动大的情况，是否可以避免损失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们从经济新闻等都可以获知，例如非农信息发布、重大信息发布影响时，此时的价格影响波动基本都是很大的，对于网络来说，这部分其实是不可预测的，此时我们避免操作，不就可以降低损失的风险了吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -959,18 +991,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="55.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -980,10 +1012,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -996,23 +1028,67 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="54">
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="94.5">
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135">
+      <c r="B6">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5">
+      <c r="B7">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>我们从经济新闻等都可以获知，例如非农信息发布、重大信息发布影响时，此时的价格影响波动基本都是很大的，对于网络来说，这部分其实是不可预测的，此时我们避免操作，不就可以降低损失的风险了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据现有网络结果，得到的操作结果还需进一步筛选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用sklearn的svm做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1002,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1032,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54">
+    <row r="4" spans="1:4" ht="40.5">
       <c r="B4">
         <v>1.1000000000000001</v>
       </c>
@@ -1082,6 +1090,17 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/analyse/相关分析记录.xlsx
+++ b/analyse/相关分析记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AuT+1模型设计与训练" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,7 +327,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用sklearn的svm做。</t>
+    <t>利用sklearn的svm做。Svm得到的概率每个记录都是一样的，因此不可用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先使用365的hjxh数据建立模型实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据只使用16个特征，开高低收、6个移动平均，KDJ、MACD。训练下日最高与最低两种标签，分开百分之一、两百分之一、三百分之一三种标签网络。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365hjxh模型的确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过多次模型训练，测试集测试，操作参数调整，数据模型回测，确定hjxh的两百分之一标签模型最佳，达到的结果均值最高，波动方差最小，并使用了概率调整对预测高低值进行微调，数据回测证明调整的参数是有效的，泛化达到最优。具体操作模型看EXCEL文档：output-hjxh365-high200-low200-class21-ori16-2018-10-7-date-analyse1.2 与 output-hjxh365-high200-low200-class21-ori16-2018-10-15-date-train4-analyse1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计实现操作过程步骤，规划每日需记录的数据，并且定期收集数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -935,9 +955,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" ht="27">
       <c r="B27" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -999,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1111,6 +1137,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="81">
+      <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,17 +1157,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="56.875" customWidth="1"/>
+    <col min="4" max="4" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -1161,21 +1199,29 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
     </row>
